--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>823340.1880631258</v>
+        <v>821452.6065467236</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>190.0910713444383</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>126.9105741582249</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>176.7166301627351</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>372.0445717845312</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>5.511247540012855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>173.6677896396941</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>390.0337349042447</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>223.3593330834812</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.03250833502995</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.0246247964037</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648052001</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>228.7190817765714</v>
+        <v>101.0041688483407</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>122.3137095599308</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>33.35146980185851</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>122.6519788371598</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985774</v>
+        <v>210.9685212521341</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6519788371601</v>
       </c>
       <c r="C22" t="n">
-        <v>110.3953356744739</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>206.8064269214846</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>57.56452900498752</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>169.7438101404419</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151905</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533798</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700704</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>24.32760278609681</v>
+        <v>93.41221638965526</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801172</v>
+        <v>91.23070601801207</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348201</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>42.20569823125507</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523533</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550458</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298318</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700199</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952705</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080335</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604797</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235373</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692846</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224541</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>2119.115747685226</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2518.647444389197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2349.71126146129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2349.71126146129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2349.71126146129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2349.71126146129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>2518.647444389197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2518.647444389197</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1149.674052893962</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>763.8858002957179</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>756.9402995465144</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,7 +4568,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2460.375997155802</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2460.375997155802</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2107.607341885688</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.607341885688</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4650,13 +4650,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1697.251320989584</v>
+        <v>1448.521729839488</v>
       </c>
       <c r="C8" t="n">
-        <v>1328.288804049173</v>
+        <v>1448.521729839488</v>
       </c>
       <c r="D8" t="n">
-        <v>1328.288804049173</v>
+        <v>1090.256031232738</v>
       </c>
       <c r="E8" t="n">
-        <v>942.5005514509282</v>
+        <v>704.4677786344935</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>293.4818738448859</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>279.5584697834768</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>1838.6610618153</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>1838.6610618153</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.251320989584</v>
+        <v>1838.6610618153</v>
       </c>
       <c r="Y8" t="n">
-        <v>1697.251320989584</v>
+        <v>1448.521729839488</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.6820060902423</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>686.6820060902423</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V10" t="n">
-        <v>686.6820060902423</v>
+        <v>184.2708856551156</v>
       </c>
       <c r="W10" t="n">
-        <v>686.6820060902423</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X10" t="n">
-        <v>686.6820060902423</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>686.6820060902423</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5027,49 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5115,16 +5115,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
         <v>1302.911127126629</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529252</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529252</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U13" t="n">
-        <v>1267.886895026013</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V13" t="n">
-        <v>1013.202406820126</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W13" t="n">
-        <v>723.7852367831649</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>723.7852367831649</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>723.7852367831649</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>329.1202010073254</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>943.017270764214</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>665.6859735286127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>665.6859735286127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>515.5693341162771</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>367.656240533884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>220.7662930359735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655734</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286127</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286127</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286127</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5510,25 +5510,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5537,22 +5537,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507007</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.67826817104</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389737</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>221.1079791745889</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>221.1079791745889</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>221.1079791745889</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>221.1079791745889</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609665</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550797</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>221.1079791745889</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5789,7 +5789,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341678</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>804.065220480208</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>692.554780404982</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>542.4381409926463</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102531</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>985.7136853104478</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>985.7136853104478</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.7136853104478</v>
+        <v>221.1079791745889</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6145,52 +6145,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387942</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018335</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038161</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6215,34 +6215,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6382,19 +6382,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
         <v>1283.483062980063</v>
@@ -6403,10 +6403,10 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473454</v>
@@ -6415,19 +6415,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011509</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>496.6650364395577</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415403</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415403</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,28 +6479,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542251</v>
+        <v>439.5324299542187</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076893</v>
+        <v>326.3571123076827</v>
       </c>
       <c r="D31" t="n">
-        <v>301.7837761601168</v>
+        <v>232.0013381767177</v>
       </c>
       <c r="E31" t="n">
-        <v>209.6315478590941</v>
+        <v>139.8491098756954</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590941</v>
+        <v>139.8491098756954</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>139.8491098756954</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>139.8491098756954</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864678</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933511</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667523</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962068</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286026</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353695</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.64139602165</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056078</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899274</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096198</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167075</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662004</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737488</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818989</v>
+        <v>902.6804289818936</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652527</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030936</v>
+        <v>565.4200295030877</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,13 +6689,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>157.2587625717278</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>306.3284467737876</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>553.0935746802517</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,25 +6935,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7546,16 +7546,16 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,7 +7564,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7585,16 +7585,16 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,37 +7819,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.337678916511</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>41.75994765618395</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>43.65987261462408</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>22.04402060665542</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,22 +9486,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229571</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>5.100663089359443</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>85.30006332127834</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>18.73797368291345</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,13 +11148,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>188.8856946302408</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.51827062200597</v>
+        <v>185.2331835502366</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>44.17985890344686</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502363</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>22.76906918577147</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>75.26883114644329</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.18000134477719</v>
       </c>
       <c r="C22" t="n">
-        <v>56.85148542415402</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,16 +24175,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>79.43092547709284</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>194.5731143188405</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>10.0881700414954</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338687</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>69.08461360355808</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437379</v>
+        <v>90.21779139437415</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897867</v>
+        <v>93.71057173897903</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571452</v>
+        <v>13.01029060445982</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1051654.326161303</v>
+        <v>1051654.326161302</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
@@ -26320,7 +26320,7 @@
         <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508234</v>
       </c>
       <c r="F2" t="n">
         <v>371477.6067508237</v>
@@ -26329,16 +26329,16 @@
         <v>371477.6067508235</v>
       </c>
       <c r="H2" t="n">
+        <v>371477.6067508236</v>
+      </c>
+      <c r="I2" t="n">
         <v>371477.6067508237</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>371477.6067508235</v>
       </c>
-      <c r="J2" t="n">
-        <v>371477.6067508237</v>
-      </c>
       <c r="K2" t="n">
-        <v>386481.0304780066</v>
+        <v>386481.0304780067</v>
       </c>
       <c r="L2" t="n">
         <v>389994.8406855347</v>
@@ -26347,13 +26347,13 @@
         <v>389994.8406855348</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="O2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284602</v>
+        <v>44162.60530284568</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086654</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284598</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="H4" t="n">
+        <v>15045.66962143907</v>
+      </c>
+      <c r="I4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.66962143906</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563577</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.4568627596</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="N4" t="n">
-        <v>37464.4568627596</v>
-      </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26473,37 +26473,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022284</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26528,31 +26528,31 @@
         <v>150360.8043709024</v>
       </c>
       <c r="E6" t="n">
-        <v>-260715.4252962285</v>
+        <v>-260812.8844222004</v>
       </c>
       <c r="F6" t="n">
-        <v>264444.6111806681</v>
+        <v>264347.1520546958</v>
       </c>
       <c r="G6" t="n">
-        <v>264444.6111806678</v>
+        <v>264347.1520546956</v>
       </c>
       <c r="H6" t="n">
-        <v>264444.6111806679</v>
+        <v>264347.1520546957</v>
       </c>
       <c r="I6" t="n">
-        <v>264444.6111806682</v>
+        <v>264347.1520546958</v>
       </c>
       <c r="J6" t="n">
-        <v>88021.391988075</v>
+        <v>87923.93286210267</v>
       </c>
       <c r="K6" t="n">
-        <v>212479.9245093021</v>
+        <v>212461.4307713682</v>
       </c>
       <c r="L6" t="n">
-        <v>244472.3712018832</v>
+        <v>244472.3712018828</v>
       </c>
       <c r="M6" t="n">
-        <v>120014.2627689126</v>
+        <v>120014.2627689127</v>
       </c>
       <c r="N6" t="n">
         <v>254815.2780027497</v>
@@ -26561,7 +26561,7 @@
         <v>254815.2780027498</v>
       </c>
       <c r="P6" t="n">
-        <v>210652.6726999038</v>
+        <v>210652.672699904</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26762,22 +26762,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,19 +26793,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855753</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108318</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855753</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>175.1818204265692</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>259.3273644978287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>48.99302522630208</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>41.73959823626376</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>245.7129199682765</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.2436641085297</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>52.04186574934306</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>16.84231083746675</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>100.5634396808759</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>245.2493659069478</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855746</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>192.3353862441232</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,19 +35811,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>250.7532875461488</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>110.0570533917296</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734236</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,13 +36282,13 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,19 +36446,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>93.11369587443357</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556541</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>334.5577682773026</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>340.4953046390457</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.711026794123</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
-        <v>206.905685158468</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.417443508486</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.51309780753</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341611</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491604</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403582</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043223</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37084,13 +37084,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>60.6481526378201</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>395.9791095617654</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,16 +37947,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>492.1965505854582</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
